--- a/pred_ohlcv/54_21/2020-01-25 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>52478.7602</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -860,7 +860,7 @@
         <v>182838.7024339122</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>168951.8918339122</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>142323.0453339122</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>142423.0453339122</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>142423.0453339122</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>141801.2463339122</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>150084.4625339122</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>152084.4625339122</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>153031.4625339122</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>131637.9193339123</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>151886.9193339123</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>151886.9193339123</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>153656.8343339122</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>159687.4016925463</v>
       </c>
       <c r="H205">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>159755.7905925463</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>158964.9181925463</v>
       </c>
       <c r="H207">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>158964.9181925463</v>
       </c>
       <c r="H208">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>158967.9181925463</v>
       </c>
       <c r="H209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>158812.9181925463</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>157983.7777925463</v>
       </c>
       <c r="H214">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>158289.8695925463</v>
       </c>
       <c r="H215">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>156555.4389925463</v>
       </c>
       <c r="H216">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>156506.1829925463</v>
       </c>
       <c r="H217">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>154863.8585925463</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>154913.1145925462</v>
       </c>
       <c r="H219">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>154923.1145925462</v>
       </c>
       <c r="H220">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>162698.0893925462</v>
       </c>
       <c r="H221">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>162698.0893925462</v>
       </c>
       <c r="H222">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>162698.0893925462</v>
       </c>
       <c r="H223">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>159412.7471925462</v>
       </c>
       <c r="H224">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>159422.7471925462</v>
       </c>
       <c r="H225">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>159372.7471925462</v>
       </c>
       <c r="H226">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>159375.7471925462</v>
       </c>
       <c r="H227">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>158477.6767925462</v>
       </c>
       <c r="H228">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>158487.6767925462</v>
       </c>
       <c r="H229">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>155328.5739925462</v>
       </c>
       <c r="H230">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>155328.5739925462</v>
       </c>
       <c r="H231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>155328.5739925462</v>
       </c>
       <c r="H232">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>155279.2379925462</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>155608.9900925462</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>155608.9900925462</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>144374.0699925463</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>129281.4499925463</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>99281.44999254626</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>99633.53299254626</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>105633.5329925463</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>105518.5329925463</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>105511.2106925463</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>102172.8931925463</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>103478.8931925463</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>103507.8931925463</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>102555.9923925462</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>101887.1419925463</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>101465.1589925463</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>91066.81299254626</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>86066.81299254626</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>91575.44099254627</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>91575.44099254627</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>94328.75099254627</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>94513.45899254626</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>61860.96149254627</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>46666.43209254627</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>67245.70089786478</v>
       </c>
       <c r="H282">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>38762.53299786478</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>28762.53299786478</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>28828.31299786478</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>28828.31299786478</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>28508.31459786478</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>28795.31459786478</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>22503.46789786478</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>25024.46789786478</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>26015.54329786478</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>24151.90879786478</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>29710.19879786478</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>29171.93889786478</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>25601.95109786478</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>25601.95109786478</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>22034.32489786478</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>22034.32489786478</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>22037.32489786478</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>21737.32489786478</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>47849.86489786478</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>82855.13779786479</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>79116.47989786479</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>78014.47989786479</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>310754.0996978648</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>310732.3798978648</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-25 INS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 INS ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>52478.7602</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>52478.7602</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -730,7 +730,7 @@
         <v>209370.8683339122</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>171731.7684339122</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>171731.7684339122</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>181681.7684339122</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>181498.1185339122</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>182838.7024339122</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>168951.8918339122</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>142323.0453339122</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>142423.0453339122</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>171226.1251925463</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>168350.6130925464</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>168266.0027925464</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>86823.36299254626</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>86880.29879254627</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>82305.44099254627</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>85027.44099254627</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>90027.44099254627</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>90489.44099254627</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>91572.44099254627</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>61860.96149254627</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>46666.43209254627</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>67245.70089786478</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>38762.53299786478</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>28762.53299786478</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>28828.31299786478</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>28828.31299786478</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>28508.31459786478</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>28795.31459786478</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>22503.46789786478</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>25024.46789786478</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>26015.54329786478</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>24151.90879786478</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>29710.19879786478</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>29171.93889786478</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>22037.32489786478</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>21737.32489786478</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>47849.86489786478</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>82855.13779786479</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>79116.47989786479</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>78014.47989786479</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>310762.1610978648</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>310754.0996978648</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>310732.3798978648</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
